--- a/StructureDefinition-flight-duration.xlsx
+++ b/StructureDefinition-flight-duration.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T09:30:35-05:00</t>
+    <t>2023-11-28T21:37:28-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
